--- a/Project plan VM.xlsx
+++ b/Project plan VM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oddkarstendropstad/Documents/GitHub/Valuation-model-web-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1377366-56A5-B340-82A7-DEB6558004D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113233BC-F132-B64A-95D8-86828E40C796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2640" windowWidth="27240" windowHeight="16440" xr2:uid="{7806DF55-2F19-1C43-A763-648A1BACB302}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Project plan</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Test functionality</t>
+  </si>
+  <si>
+    <t>BLOGG PROSJEKT</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,14 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +490,7 @@
   <dimension ref="B5:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,9 +538,11 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -537,28 +553,35 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
